--- a/doc/readme.xlsx
+++ b/doc/readme.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="7000"/>
+    <workbookView windowWidth="18350" windowHeight="7000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="获取所有股票列表" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="开发" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>数据源：</t>
   </si>
@@ -50,6 +50,15 @@
   </si>
   <si>
     <t>DataProvider从本地文件中抽取ID和名字</t>
+  </si>
+  <si>
+    <t>更新</t>
+  </si>
+  <si>
+    <t>1.bj证券8和9开头的添加  TODO</t>
+  </si>
+  <si>
+    <t>2.全更新时候根据最新更新日期决定单个股票是否访问网络，这样可以在更新中断时候不至于从头再来</t>
   </si>
 </sst>
 </file>
@@ -1108,7 +1117,7 @@
   <sheetPr/>
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
@@ -1166,14 +1175,33 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="2.63636363636364" defaultRowHeight="12" outlineLevelRow="2" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="16384" width="2.63636363636364" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/doc/readme.xlsx
+++ b/doc/readme.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="7000"/>
+    <workbookView windowWidth="18350" windowHeight="7000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="获取所有股票列表" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="开发TODO" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>数据源：</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>DataProvider从本地文件中抽取ID和名字</t>
+  </si>
+  <si>
+    <t>1.bj证券8和9开头的添加</t>
+  </si>
+  <si>
+    <t>2.全更新时候根据最新更新日期决定单个股票是否访问网络，这样可以在更新中断时候不至于从头再来</t>
   </si>
 </sst>
 </file>
@@ -693,8 +699,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1108,50 +1117,50 @@
   <sheetPr/>
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.81818181818182" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="16384" width="2.81818181818182" style="1" customWidth="1"/>
+    <col min="1" max="16384" width="2.81818181818182" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="3"/>
+      <c r="B35" s="4"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1166,14 +1175,28 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="2.63636363636364" defaultRowHeight="12" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="16384" width="2.63636363636364" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/doc/readme.xlsx
+++ b/doc/readme.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="获取所有股票列表" sheetId="1" r:id="rId1"/>
-    <sheet name="开发TODO" sheetId="2" r:id="rId2"/>
+    <sheet name="开发" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>数据源：</t>
   </si>
@@ -52,7 +52,10 @@
     <t>DataProvider从本地文件中抽取ID和名字</t>
   </si>
   <si>
-    <t>1.bj证券8和9开头的添加</t>
+    <t>更新</t>
+  </si>
+  <si>
+    <t>1.bj证券8和9开头的添加  TODO</t>
   </si>
   <si>
     <t>2.全更新时候根据最新更新日期决定单个股票是否访问网络，这样可以在更新中断时候不至于从头再来</t>
@@ -699,11 +702,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1117,50 +1117,50 @@
   <sheetPr/>
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.81818181818182" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="16384" width="2.81818181818182" style="2" customWidth="1"/>
+    <col min="1" max="16384" width="2.81818181818182" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="4"/>
+      <c r="B35" s="3"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1175,25 +1175,30 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.63636363636364" defaultRowHeight="12" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="2.63636363636364" defaultRowHeight="12" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="16384" width="2.63636363636364" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="2:2">
+      <c r="B2" s="3" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/doc/readme.xlsx
+++ b/doc/readme.xlsx
@@ -55,7 +55,7 @@
     <t>更新</t>
   </si>
   <si>
-    <t>1.bj证券8和9开头的添加  TODO</t>
+    <t>1.bj证券83 87 92前缀已经支持</t>
   </si>
   <si>
     <t>2.全更新时候根据最新更新日期决定单个股票是否访问网络，这样可以在更新中断时候不至于从头再来</t>
@@ -71,7 +71,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +90,12 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -572,137 +578,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -713,6 +719,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1147,12 +1156,12 @@
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="3"/>
+      <c r="B35" s="4"/>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="2" t="s">
@@ -1178,7 +1187,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X16" sqref="X16"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.63636363636364" defaultRowHeight="12" outlineLevelRow="2" outlineLevelCol="1"/>

--- a/doc/readme.xlsx
+++ b/doc/readme.xlsx
@@ -869,6 +869,1235 @@
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3987800" y="2508250"/>
+          <a:ext cx="1079500" cy="474980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Common</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>基础库</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38735</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>113030</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2724150" y="2477135"/>
+          <a:ext cx="1079500" cy="531495"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Model</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>通用模型定义</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>140335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>62230</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="1664335"/>
+          <a:ext cx="1079500" cy="531495"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DataProvider</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>基础数据提供</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>51435</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矩形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1498600" y="2489835"/>
+          <a:ext cx="1079500" cy="531495"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>WebStock</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>网络数据</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>146685</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="矩形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1517650" y="1670685"/>
+          <a:ext cx="1079500" cy="531495"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>tools</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>可执行工具集</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>140335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="矩形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5397500" y="902335"/>
+          <a:ext cx="1295400" cy="2080895"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>tests</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>测试包</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76835</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>151130</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="矩形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2749550" y="991235"/>
+          <a:ext cx="1079500" cy="531495"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DataEngine</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>数据推送引擎</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1187,7 +2416,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="AP18" sqref="AP18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.63636363636364" defaultRowHeight="12" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -1214,6 +2443,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/doc/readme.xlsx
+++ b/doc/readme.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="7000" activeTab="1"/>
+    <workbookView windowWidth="18350" windowHeight="7000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="获取所有股票列表" sheetId="1" r:id="rId1"/>
     <sheet name="开发" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="策略" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
   <si>
     <t>数据源：</t>
   </si>
@@ -59,6 +59,117 @@
   </si>
   <si>
     <t>2.全更新时候根据最新更新日期决定单个股票是否访问网络，这样可以在更新中断时候不至于从头再来</t>
+  </si>
+  <si>
+    <t>策略文件</t>
+  </si>
+  <si>
+    <t>策略描述</t>
+  </si>
+  <si>
+    <t>回测时间段</t>
+  </si>
+  <si>
+    <t>账户增长曲线分析</t>
+  </si>
+  <si>
+    <t>总结</t>
+  </si>
+  <si>
+    <t>RunPickAnalysisX1</t>
+  </si>
+  <si>
+    <t>下跌后的早晨之星</t>
+  </si>
+  <si>
+    <t>20200101-20231231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>选股数量少，无效</t>
+  </si>
+  <si>
+    <t>RunPickAnalysisX2</t>
+  </si>
+  <si>
+    <t>极涨后的大幅回调</t>
+  </si>
+  <si>
+    <t>亏损过多</t>
+  </si>
+  <si>
+    <t>RunPickAnalysisX3</t>
+  </si>
+  <si>
+    <t>平台整理后的二次突破</t>
+  </si>
+  <si>
+    <t>相对可以保本</t>
+  </si>
+  <si>
+    <t>RunPickAnalysisX4</t>
+  </si>
+  <si>
+    <t>长期横盘后，极速上涨后脱离横盘成本，回调一段时间</t>
+  </si>
+  <si>
+    <t>年化收益12%
+4年累计60%</t>
+  </si>
+  <si>
+    <t>RunPickAnalysisX5</t>
+  </si>
+  <si>
+    <t>长期下跌后出现的首次MACD金叉</t>
+  </si>
+  <si>
+    <t>年化收益20%
+4年累计收益100%</t>
+  </si>
+  <si>
+    <t>RunPickAnalysisX6</t>
+  </si>
+  <si>
+    <t>长期下跌企稳后，出现长阳线穿多日均线</t>
+  </si>
+  <si>
+    <t>增长阶段不算太高，但后期有策略失效，亏损较多</t>
+  </si>
+  <si>
+    <t>RunPickAnalysisX7</t>
+  </si>
+  <si>
+    <t>是X6的升级版，长期下跌止稳后一根大阳线穿过多日均线后的回调日</t>
+  </si>
+  <si>
+    <t>亏损较多</t>
+  </si>
+  <si>
+    <t>RunPickAnalysisX8</t>
+  </si>
+  <si>
+    <t>急跌横盘再次急跌形态</t>
+  </si>
+  <si>
+    <t>基本可保本，但收益率低</t>
+  </si>
+  <si>
+    <t>RunPickAnalysisX9</t>
+  </si>
+  <si>
+    <t>中期创新高后的极速下跌形态</t>
+  </si>
+  <si>
+    <t>基本处于亏损状态</t>
+  </si>
+  <si>
+    <t>RunPickAnalysisX10</t>
+  </si>
+  <si>
+    <t>RunPickAnalysisX4活RunPickAnalysisX5的组合形式</t>
   </si>
 </sst>
 </file>
@@ -252,12 +363,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -267,6 +384,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -381,12 +504,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -452,12 +569,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -584,7 +716,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -596,132 +728,156 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2098,6 +2254,431 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1117600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1207135</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>667385</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4673600" y="161290"/>
+          <a:ext cx="1270635" cy="658495"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1189990</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>657860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4845050" y="977900"/>
+          <a:ext cx="1082040" cy="594360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1179830</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>746125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1273810</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>725805</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4735830" y="1660525"/>
+          <a:ext cx="1275080" cy="741680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1161415</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1278255</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>742950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4717415" y="2450465"/>
+          <a:ext cx="1297940" cy="730885"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1170305</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>13970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1320800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>742950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4726305" y="3214370"/>
+          <a:ext cx="1331595" cy="728980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>50165</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>24130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1054735</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>582295</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4787265" y="3986530"/>
+          <a:ext cx="1004570" cy="558165"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1314450</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>743585</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762500" y="4622165"/>
+          <a:ext cx="1289050" cy="731520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1270</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>17780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1236345</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>714375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4738370" y="5389880"/>
+          <a:ext cx="1235075" cy="696595"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1225550</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>708025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4749800" y="6144260"/>
+          <a:ext cx="1212850" cy="697865"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>43180</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>43180</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1292225</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>691515</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4780280" y="6939280"/>
+          <a:ext cx="1249045" cy="648335"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2361,44 +2942,44 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.81818181818182" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="16384" width="2.81818181818182" style="1" customWidth="1"/>
+    <col min="1" max="16384" width="2.81818181818182" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="4"/>
+      <c r="B35" s="12"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2415,27 +2996,27 @@
   <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AP18" sqref="AP18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.63636363636364" defaultRowHeight="12" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="16384" width="2.63636363636364" style="1" customWidth="1"/>
+    <col min="1" max="16384" width="2.63636363636364" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2450,16 +3031,255 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="3.09090909090909" defaultRowHeight="12" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="15.7272727272727" style="2" customWidth="1"/>
+    <col min="2" max="2" width="35.1818181818182" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.9090909090909" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.1818181818182" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="3.09090909090909" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" ht="60" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" ht="60" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" ht="60" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" ht="60" spans="1:5">
+      <c r="A5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" ht="60" spans="1:5">
+      <c r="A6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" ht="51" customHeight="1" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" ht="60" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" ht="60" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" ht="60" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" ht="60" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" ht="60" spans="4:4">
+      <c r="D12" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" ht="60" spans="4:4">
+      <c r="D13" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" ht="60" spans="4:4">
+      <c r="D14" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" ht="60" spans="4:4">
+      <c r="D15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" ht="60" spans="4:4">
+      <c r="D16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" ht="60" spans="4:4">
+      <c r="D17" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" ht="60" spans="4:4">
+      <c r="D18" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" ht="60" spans="4:4">
+      <c r="D19" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" ht="60" spans="4:4">
+      <c r="D20" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>